--- a/pred_ohlcv/54_21/2019-10-27 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 BCH ohlcv.xlsx
@@ -8062,7 +8062,7 @@
         <v>-687.4121850999999</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-859.7720850999999</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1415.351409519999</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1603.608209519999</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1507.67230952</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1428.60330952</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1442.73300952</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1443.35140952</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1376.04980952</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1375.94510952</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1373.94510952</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1373.94510952</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1370.059609519999</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1398.809309519999</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1399.117509519999</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1400.077909519999</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1402.809309519999</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1413.388509519999</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1410.856809519999</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-53.06339942999954</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-102.1105622699995</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-80.00496226999954</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-68.95336226999953</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-58.06336226999953</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-75.08486226999953</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>7.414516650000465</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>51.88331665000047</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>104.8965166500005</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>104.8965166500005</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>70.25671665000047</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>72.25671665000047</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>128.7664166500005</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>164.6953166500005</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>188.2528166500005</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>219.6985166500005</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>290.7961166500005</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>386.4894166500005</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>627.0536067300005</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>488.3583067300005</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>467.0491067300006</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>490.1025067300005</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>458.3629067300005</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>455.5464067300005</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>394.2261067300004</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>153.9023067300004</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>273.9358199000004</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>273.9358199000004</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>260.1233199000004</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>395.2581289700004</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>391.9808289700003</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>372.1237289700003</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>370.8154289700004</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>366.6977289700004</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>347.8353289700004</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-113.0829283199995</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-21.73002831999952</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>97.22627168000048</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>27.06487168000048</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>159.0322716800005</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>103.3402652800005</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>104.1559652800005</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-268.3168347199995</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-397.2086347199995</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-513.0571347199996</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-468.8967347199996</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-437.2935347199996</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-437.2935347199996</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-461.6846347199996</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-426.8145347199996</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-412.7278347199996</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-377.7229347199996</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-477.5425347199995</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-703.0724347199996</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-716.0237347199995</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-716.0237347199995</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-868.2785222599996</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-868.2785222599996</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-979.0490422699996</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-854.1406422699996</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-854.1406422699996</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-900.2865422699996</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-927.8802422699996</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-936.3130422699996</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-895.0324826499997</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-834.1735826499997</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-869.0231826499997</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-863.0184826499998</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-858.0184826499998</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>182.3045481800004</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>91.06434818000035</v>
       </c>
       <c r="H1134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>36.02544082000035</v>
       </c>
       <c r="H1135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-21.69455917999965</v>
       </c>
       <c r="H1136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>0.855040820000351</v>
       </c>
       <c r="H1137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-41.02505917999964</v>
       </c>
       <c r="H1139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-41.02505917999964</v>
       </c>
       <c r="H1140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-34.54405917999964</v>
       </c>
       <c r="H1141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>53.92134082000036</v>
       </c>
       <c r="H1142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>260.5892408200004</v>
       </c>
       <c r="H1143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>389.5686408200004</v>
       </c>
       <c r="H1144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>255.9247408200004</v>
       </c>
       <c r="H1145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>359.8326408200004</v>
       </c>
       <c r="H1146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>427.8615408200004</v>
       </c>
       <c r="H1147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>324.4679408200004</v>
       </c>
       <c r="H1148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>183.5753408200004</v>
       </c>
       <c r="H1149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>329.2231408200004</v>
       </c>
       <c r="H1150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>119.7425408200004</v>
       </c>
       <c r="H1151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-37.69235917999958</v>
       </c>
       <c r="H1152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-109.5806591799996</v>
       </c>
       <c r="H1153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>8.768440820000421</v>
       </c>
       <c r="H1154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>66.97584082000043</v>
       </c>
       <c r="H1155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-6.966359179999571</v>
       </c>
       <c r="H1156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-96.69875917999957</v>
       </c>
       <c r="H1157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 BCH ohlcv.xlsx
@@ -9076,7 +9076,7 @@
         <v>-1508.17240952</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1428.60330952</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1442.73300952</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1442.73300952</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1375.94510952</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1373.94510952</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1373.94510952</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1398.809309519999</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1399.117509519999</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1400.077909519999</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1402.809309519999</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1413.388509519999</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1410.856809519999</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-53.06339942999954</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-102.1105622699995</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-80.00496226999954</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-68.95336226999953</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-58.06336226999953</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-75.08486226999953</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>7.414516650000465</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>51.88331665000047</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>104.8965166500005</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>104.8965166500005</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>70.25671665000047</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>72.25671665000047</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>128.7664166500005</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>164.6953166500005</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>188.2528166500005</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>219.6985166500005</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>290.7961166500005</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>386.4894166500005</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>627.0536067300005</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>488.3583067300005</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>467.0491067300006</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>490.1025067300005</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>458.3629067300005</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>455.5464067300005</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>394.2261067300004</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>153.9023067300004</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>273.9358199000004</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>273.9358199000004</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>260.1233199000004</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>395.2581289700004</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>391.9808289700003</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>372.1237289700003</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>370.8154289700004</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>366.6977289700004</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>347.8353289700004</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-113.0829283199995</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-21.73002831999952</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>97.22627168000048</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>27.06487168000048</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>159.0322716800005</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>103.3402652800005</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>104.1559652800005</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-268.3168347199995</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-397.2086347199995</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-513.0571347199996</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-468.8967347199996</v>
       </c>
       <c r="H1021">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-437.2935347199996</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-437.2935347199996</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-461.6846347199996</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-426.8145347199996</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-412.7278347199996</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-377.7229347199996</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-477.5425347199995</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-703.0724347199996</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-716.0237347199995</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-716.0237347199995</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-868.2785222599996</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-868.2785222599996</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-979.0490422699996</v>
       </c>
       <c r="H1081">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-854.1406422699996</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-854.1406422699996</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-900.2865422699996</v>
       </c>
       <c r="H1084">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-927.8802422699996</v>
       </c>
       <c r="H1085">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-936.3130422699996</v>
       </c>
       <c r="H1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-895.0324826499997</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-834.1735826499997</v>
       </c>
       <c r="H1088">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-869.0231826499997</v>
       </c>
       <c r="H1089">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-863.0184826499998</v>
       </c>
       <c r="H1091">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-858.0184826499998</v>
       </c>
       <c r="H1092">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>259.2904398100004</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>182.3045481800004</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>91.06434818000035</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>36.02544082000035</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-21.69455917999965</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>0.855040820000351</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-41.02505917999964</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-41.02505917999964</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-34.54405917999964</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>53.92134082000036</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>260.5892408200004</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>389.5686408200004</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>255.9247408200004</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>359.8326408200004</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>427.8615408200004</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>324.4679408200004</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>183.5753408200004</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>329.2231408200004</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>119.7425408200004</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-37.69235917999958</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-109.5806591799996</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>8.768440820000421</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>66.97584082000043</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-6.966359179999571</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
